--- a/biology/Zoologie/Callidium_aeneum/Callidium_aeneum.xlsx
+++ b/biology/Zoologie/Callidium_aeneum/Callidium_aeneum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callidium aeneum est une espèce d'insectes coléoptères de la famille des Cerambycidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurasiatique, de la France à la Chine. Semble en expansion en France[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurasiatique, de la France à la Chine. Semble en expansion en France.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les imagos sont visibles d'avril à juillet, on les trouve principalement dans les forêts de montagne, sur les troncs, les bûches. La larve vit sous l'écorce des conifères, parfois aussi sous celle de feuillus.
 </t>
@@ -573,10 +589,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce est parfois placée dans le sous-genre Callidium (Callidostola), son nom complet est alors : Callidium (Callidostola) aeneum.
-Deux sous-espèces sont connues d'après BioLib                    (19 janv. 2015)[2] :
+Deux sous-espèces sont connues d'après BioLib                    (19 janv. 2015) :
 Callidium aeneum aeneum (De Geer, 1775)
 Callidium aeneum longipenne Plavilstshikov, 1940.</t>
         </is>
